--- a/data/trans_orig/P6711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{656C6C56-CA30-47BB-B361-FB609416E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D712C86F-6D0C-40B0-A01F-1353250FBCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6888F54F-527E-4E95-9F6D-4E738FAC1526}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7726682-1EA0-44E8-A833-2ED4F85A5F24}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="363">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,1081 +75,1057 @@
     <t>10,71%</t>
   </si>
   <si>
-    <t>6,45%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
     <t>24,72%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A2D49A-8411-4D3F-9F20-D88147E4C70C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011DEBD-0580-429A-9CB1-E2C61AF2D01C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2005,7 +1981,7 @@
         <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>75263</v>
+        <v>75264</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2209,7 +2185,7 @@
         <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>234096</v>
+        <v>234097</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -2260,7 +2236,7 @@
         <v>534</v>
       </c>
       <c r="I15" s="7">
-        <v>571588</v>
+        <v>571589</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2663,10 +2639,10 @@
         <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -2675,13 +2651,13 @@
         <v>72949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>146</v>
@@ -2690,13 +2666,13 @@
         <v>158129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2687,13 @@
         <v>264587</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>130</v>
@@ -2726,13 +2702,13 @@
         <v>139432</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>376</v>
@@ -2744,10 +2720,10 @@
         <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,10 +2741,10 @@
         <v>41</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>168</v>
@@ -2777,13 +2753,13 @@
         <v>178988</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>423</v>
@@ -2792,13 +2768,13 @@
         <v>441389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2789,13 @@
         <v>642781</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
@@ -2828,13 +2804,13 @@
         <v>421957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>986</v>
@@ -2843,13 +2819,13 @@
         <v>1064738</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,7 +2881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBF6E7C-7F4F-42BC-86FC-AF384D4262E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841A1886-ABC6-44F4-B29B-D1490672F0B2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2941,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3048,13 +3024,13 @@
         <v>22514</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3063,7 +3039,7 @@
         <v>13074</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>201</v>
@@ -3078,13 +3054,13 @@
         <v>35588</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3075,13 @@
         <v>20020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3114,10 +3090,10 @@
         <v>8828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>210</v>
@@ -3270,10 +3246,10 @@
         <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -3282,13 +3258,13 @@
         <v>57484</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3332,13 @@
         <v>131903</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
@@ -3371,13 +3347,13 @@
         <v>118452</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -3386,13 +3362,13 @@
         <v>250355</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3383,13 @@
         <v>126627</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3422,13 +3398,13 @@
         <v>94935</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -3437,13 +3413,13 @@
         <v>221562</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3434,13 @@
         <v>219990</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>155</v>
@@ -3473,13 +3449,13 @@
         <v>155067</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>365</v>
@@ -3488,13 +3464,13 @@
         <v>375057</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3485,13 @@
         <v>210214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -3524,13 +3500,13 @@
         <v>135035</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -3539,13 +3515,13 @@
         <v>345249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3536,13 @@
         <v>236463</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -3575,13 +3551,13 @@
         <v>149285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -3590,13 +3566,13 @@
         <v>385749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3640,13 @@
         <v>54561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3679,13 +3655,13 @@
         <v>62876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -3694,13 +3670,13 @@
         <v>117437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3691,13 @@
         <v>34236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3730,13 +3706,13 @@
         <v>39659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -3745,13 +3721,13 @@
         <v>73895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3742,13 @@
         <v>72157</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -3781,13 +3757,13 @@
         <v>60172</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -3796,13 +3772,13 @@
         <v>132329</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3793,13 @@
         <v>80976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3832,13 +3808,13 @@
         <v>55759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -3847,13 +3823,13 @@
         <v>136736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3844,13 @@
         <v>108678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -3883,13 +3859,13 @@
         <v>89987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>187</v>
@@ -3898,13 +3874,13 @@
         <v>198665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3948,13 @@
         <v>208978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -3987,13 +3963,13 @@
         <v>194401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>377</v>
@@ -4002,13 +3978,13 @@
         <v>403379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +3999,13 @@
         <v>180884</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>142</v>
@@ -4038,13 +4014,13 @@
         <v>143422</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>309</v>
@@ -4053,13 +4029,13 @@
         <v>324305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4050,13 @@
         <v>322826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
         <v>232</v>
@@ -4089,13 +4065,13 @@
         <v>234541</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>538</v>
@@ -4104,13 +4080,13 @@
         <v>557367</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4101,13 @@
         <v>319739</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>203</v>
@@ -4140,13 +4116,13 @@
         <v>205549</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>501</v>
@@ -4155,13 +4131,13 @@
         <v>525289</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4152,13 @@
         <v>386497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>364</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -4191,13 +4167,13 @@
         <v>255401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>604</v>
@@ -4206,13 +4182,13 @@
         <v>641897</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,7 +4244,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D712C86F-6D0C-40B0-A01F-1353250FBCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B2B5A5-E749-437B-AC54-AD6FC8CB7A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7726682-1EA0-44E8-A833-2ED4F85A5F24}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA876CBD-0890-4B61-A03B-2C62735A06F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="359">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,1030 +75,1015 @@
     <t>10,71%</t>
   </si>
   <si>
-    <t>6,59%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>22,47%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>19,75%</t>
+    <t>19,72%</t>
   </si>
   <si>
     <t>23,26%</t>
@@ -1110,22 +1095,25 @@
     <t>24,85%</t>
   </si>
   <si>
+    <t>29,74%</t>
+  </si>
+  <si>
     <t>24,72%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011DEBD-0580-429A-9CB1-E2C61AF2D01C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486264AF-E933-4767-9433-C16369F4CD9A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1742,19 +1730,19 @@
         <v>14091</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>17</v>
@@ -1763,13 +1751,13 @@
         <v>19331</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -1778,13 +1766,13 @@
         <v>14511</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -1793,19 +1781,19 @@
         <v>33842</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>32</v>
@@ -1814,13 +1802,13 @@
         <v>34155</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -1829,13 +1817,13 @@
         <v>17245</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -1844,19 +1832,19 @@
         <v>51399</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>106</v>
@@ -1865,13 +1853,13 @@
         <v>107916</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -1880,13 +1868,13 @@
         <v>81106</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>182</v>
@@ -1895,13 +1883,13 @@
         <v>189022</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1904,13 @@
         <v>184018</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
@@ -1931,13 +1919,13 @@
         <v>139977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -1946,18 +1934,18 @@
         <v>323995</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1969,28 +1957,28 @@
         <v>112457</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>75264</v>
+        <v>75263</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -1999,13 +1987,13 @@
         <v>187721</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2008,13 @@
         <v>56376</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -2035,13 +2023,13 @@
         <v>48826</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -2050,19 +2038,19 @@
         <v>105202</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>163</v>
@@ -2071,13 +2059,13 @@
         <v>170155</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -2086,13 +2074,13 @@
         <v>91538</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>249</v>
@@ -2101,19 +2089,19 @@
         <v>261693</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>175</v>
@@ -2122,13 +2110,13 @@
         <v>178620</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -2137,13 +2125,13 @@
         <v>121865</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>292</v>
@@ -2152,19 +2140,19 @@
         <v>300485</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>370</v>
@@ -2173,28 +2161,28 @@
         <v>396172</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>234097</v>
+        <v>234096</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>588</v>
@@ -2203,13 +2191,13 @@
         <v>630269</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,28 +2212,28 @@
         <v>913780</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>534</v>
       </c>
       <c r="I15" s="7">
-        <v>571589</v>
+        <v>571588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1399</v>
@@ -2254,18 +2242,18 @@
         <v>1485369</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2277,13 +2265,13 @@
         <v>26948</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -2292,13 +2280,13 @@
         <v>39792</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -2307,13 +2295,13 @@
         <v>66739</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2316,13 @@
         <v>25889</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2343,13 +2331,13 @@
         <v>12948</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -2358,19 +2346,19 @@
         <v>38837</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>66</v>
@@ -2379,13 +2367,13 @@
         <v>75101</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -2394,13 +2382,13 @@
         <v>33383</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>96</v>
@@ -2409,19 +2397,19 @@
         <v>108484</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>48</v>
@@ -2430,13 +2418,13 @@
         <v>49627</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2445,13 +2433,13 @@
         <v>39878</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -2460,19 +2448,19 @@
         <v>89505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>121</v>
@@ -2481,13 +2469,13 @@
         <v>138693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -2496,13 +2484,13 @@
         <v>106754</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>216</v>
@@ -2511,13 +2499,13 @@
         <v>245446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2520,13 @@
         <v>316257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>208</v>
@@ -2547,13 +2535,13 @@
         <v>232755</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>494</v>
@@ -2562,13 +2550,13 @@
         <v>549012</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2573,13 @@
         <v>159106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -2600,13 +2588,13 @@
         <v>130995</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>268</v>
@@ -2615,13 +2603,13 @@
         <v>290101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2624,13 @@
         <v>85180</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -2651,13 +2639,13 @@
         <v>72949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>146</v>
@@ -2666,19 +2654,19 @@
         <v>158129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>246</v>
@@ -2687,13 +2675,13 @@
         <v>264587</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>130</v>
@@ -2702,13 +2690,13 @@
         <v>139432</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>376</v>
@@ -2717,19 +2705,19 @@
         <v>404019</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>255</v>
@@ -2738,13 +2726,13 @@
         <v>262402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>168</v>
@@ -2753,13 +2741,13 @@
         <v>178988</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>423</v>
@@ -2768,19 +2756,19 @@
         <v>441389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>597</v>
@@ -2789,13 +2777,13 @@
         <v>642781</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
@@ -2804,13 +2792,13 @@
         <v>421957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>986</v>
@@ -2819,13 +2807,13 @@
         <v>1064738</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2828,13 @@
         <v>1414056</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>872</v>
@@ -2855,13 +2843,13 @@
         <v>944321</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2199</v>
@@ -2870,18 +2858,18 @@
         <v>2358376</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841A1886-ABC6-44F4-B29B-D1490672F0B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D517BAB-1119-4737-9842-1F311608FFDA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2917,7 +2905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3024,13 +3012,13 @@
         <v>22514</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3039,13 +3027,13 @@
         <v>13074</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3054,13 +3042,13 @@
         <v>35588</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3063,13 @@
         <v>20020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3090,13 +3078,13 @@
         <v>8828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3105,19 +3093,19 @@
         <v>28848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>31</v>
@@ -3126,13 +3114,13 @@
         <v>30680</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3141,13 +3129,13 @@
         <v>19301</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -3156,19 +3144,19 @@
         <v>49981</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>27</v>
@@ -3177,13 +3165,13 @@
         <v>28549</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3192,13 +3180,13 @@
         <v>14755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -3207,19 +3195,19 @@
         <v>43303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>38</v>
@@ -3228,13 +3216,13 @@
         <v>41355</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3243,13 +3231,13 @@
         <v>16129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -3258,13 +3246,13 @@
         <v>57484</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3267,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3294,13 +3282,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3309,18 +3297,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3332,13 +3320,13 @@
         <v>131903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
@@ -3347,13 +3335,13 @@
         <v>118452</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -3362,13 +3350,13 @@
         <v>250355</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3371,13 @@
         <v>126627</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3398,13 +3386,13 @@
         <v>94935</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -3413,19 +3401,19 @@
         <v>221562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>210</v>
@@ -3434,13 +3422,13 @@
         <v>219990</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>155</v>
@@ -3449,13 +3437,13 @@
         <v>155067</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>365</v>
@@ -3464,19 +3452,19 @@
         <v>375057</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>200</v>
@@ -3485,13 +3473,13 @@
         <v>210214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -3500,13 +3488,13 @@
         <v>135035</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -3515,19 +3503,19 @@
         <v>345249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>218</v>
@@ -3536,13 +3524,13 @@
         <v>236463</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -3551,13 +3539,13 @@
         <v>149285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -3566,13 +3554,13 @@
         <v>385749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3575,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -3602,13 +3590,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -3617,18 +3605,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3640,13 +3628,13 @@
         <v>54561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3655,13 +3643,13 @@
         <v>62876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -3670,13 +3658,13 @@
         <v>117437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3679,13 @@
         <v>34236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3706,13 +3694,13 @@
         <v>39659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -3721,19 +3709,19 @@
         <v>73895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>65</v>
@@ -3742,13 +3730,13 @@
         <v>72157</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -3757,13 +3745,13 @@
         <v>60172</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -3772,19 +3760,19 @@
         <v>132329</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>71</v>
@@ -3793,13 +3781,13 @@
         <v>80976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3808,13 +3796,13 @@
         <v>55759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -3823,19 +3811,19 @@
         <v>136736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>103</v>
@@ -3844,13 +3832,13 @@
         <v>108678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -3859,13 +3847,13 @@
         <v>89987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>187</v>
@@ -3874,13 +3862,13 @@
         <v>198665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3883,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -3910,13 +3898,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3925,13 +3913,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3936,13 @@
         <v>208978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -3963,13 +3951,13 @@
         <v>194401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>377</v>
@@ -3978,13 +3966,13 @@
         <v>403379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3987,13 @@
         <v>180884</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>142</v>
@@ -4014,13 +4002,13 @@
         <v>143422</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>309</v>
@@ -4029,19 +4017,19 @@
         <v>324305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>306</v>
@@ -4050,13 +4038,13 @@
         <v>322826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>232</v>
@@ -4065,13 +4053,13 @@
         <v>234541</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>538</v>
@@ -4080,19 +4068,19 @@
         <v>557367</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>298</v>
@@ -4101,13 +4089,13 @@
         <v>319739</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>203</v>
@@ -4116,13 +4104,13 @@
         <v>205549</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>501</v>
@@ -4131,19 +4119,19 @@
         <v>525289</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>359</v>
@@ -4152,13 +4140,13 @@
         <v>386497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -4167,13 +4155,13 @@
         <v>255401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>604</v>
@@ -4182,13 +4170,13 @@
         <v>641897</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4191,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4218,13 +4206,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4233,18 +4221,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B2B5A5-E749-437B-AC54-AD6FC8CB7A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03743F2C-6D7A-42CC-AFC6-8E025CA00254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA876CBD-0890-4B61-A03B-2C62735A06F5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{888091C1-CCBE-44E5-860E-E8121F1905EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="371">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,1045 +75,1081 @@
     <t>10,71%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>24,72%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486264AF-E933-4767-9433-C16369F4CD9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAC5BCB-53FC-49F7-AF96-840D09D3456C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1730,19 +1766,19 @@
         <v>14091</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>17</v>
@@ -1751,13 +1787,13 @@
         <v>19331</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -1766,13 +1802,13 @@
         <v>14511</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -1781,19 +1817,19 @@
         <v>33842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>32</v>
@@ -1802,13 +1838,13 @@
         <v>34155</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -1817,13 +1853,13 @@
         <v>17245</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -1832,19 +1868,19 @@
         <v>51399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>106</v>
@@ -1853,13 +1889,13 @@
         <v>107916</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -1868,13 +1904,13 @@
         <v>81106</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>182</v>
@@ -1883,13 +1919,13 @@
         <v>189022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1940,13 @@
         <v>184018</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
@@ -1919,13 +1955,13 @@
         <v>139977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -1934,18 +1970,18 @@
         <v>323995</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1957,13 +1993,13 @@
         <v>112457</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -1972,13 +2008,13 @@
         <v>75263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -1987,13 +2023,13 @@
         <v>187721</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2044,13 @@
         <v>56376</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -2023,13 +2059,13 @@
         <v>48826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -2038,19 +2074,19 @@
         <v>105202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>163</v>
@@ -2059,13 +2095,13 @@
         <v>170155</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -2074,13 +2110,13 @@
         <v>91538</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>249</v>
@@ -2089,19 +2125,19 @@
         <v>261693</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>175</v>
@@ -2110,13 +2146,13 @@
         <v>178620</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -2125,13 +2161,13 @@
         <v>121865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>292</v>
@@ -2140,19 +2176,19 @@
         <v>300485</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>370</v>
@@ -2161,13 +2197,13 @@
         <v>396172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -2176,13 +2212,13 @@
         <v>234096</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>588</v>
@@ -2191,13 +2227,13 @@
         <v>630269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2248,13 @@
         <v>913780</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>534</v>
@@ -2227,13 +2263,13 @@
         <v>571588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1399</v>
@@ -2242,18 +2278,18 @@
         <v>1485369</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2265,13 +2301,13 @@
         <v>26948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -2280,13 +2316,13 @@
         <v>39792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -2295,13 +2331,13 @@
         <v>66739</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2352,13 @@
         <v>25889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2331,13 +2367,13 @@
         <v>12948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -2346,19 +2382,19 @@
         <v>38837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>66</v>
@@ -2367,13 +2403,13 @@
         <v>75101</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -2382,13 +2418,13 @@
         <v>33383</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>96</v>
@@ -2397,19 +2433,19 @@
         <v>108484</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>48</v>
@@ -2418,13 +2454,13 @@
         <v>49627</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2433,13 +2469,13 @@
         <v>39878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -2448,19 +2484,19 @@
         <v>89505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>121</v>
@@ -2469,13 +2505,13 @@
         <v>138693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -2484,13 +2520,13 @@
         <v>106754</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>216</v>
@@ -2499,13 +2535,13 @@
         <v>245446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2556,13 @@
         <v>316257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>208</v>
@@ -2535,13 +2571,13 @@
         <v>232755</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>494</v>
@@ -2550,13 +2586,13 @@
         <v>549012</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2609,13 @@
         <v>159106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -2588,13 +2624,13 @@
         <v>130995</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>268</v>
@@ -2603,13 +2639,13 @@
         <v>290101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2660,13 @@
         <v>85180</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -2639,13 +2675,13 @@
         <v>72949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>146</v>
@@ -2654,19 +2690,19 @@
         <v>158129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>246</v>
@@ -2675,13 +2711,13 @@
         <v>264587</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>130</v>
@@ -2690,13 +2726,13 @@
         <v>139432</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>376</v>
@@ -2705,19 +2741,19 @@
         <v>404019</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>255</v>
@@ -2726,13 +2762,13 @@
         <v>262402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>168</v>
@@ -2741,13 +2777,13 @@
         <v>178988</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>423</v>
@@ -2756,19 +2792,19 @@
         <v>441389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>597</v>
@@ -2777,13 +2813,13 @@
         <v>642781</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
@@ -2792,13 +2828,13 @@
         <v>421957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>986</v>
@@ -2807,13 +2843,13 @@
         <v>1064738</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2864,13 @@
         <v>1414056</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>872</v>
@@ -2843,13 +2879,13 @@
         <v>944321</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2199</v>
@@ -2858,18 +2894,18 @@
         <v>2358376</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D517BAB-1119-4737-9842-1F311608FFDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D7BC7-8C38-4BA6-85A0-4E17290D5FB5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2905,7 +2941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3012,13 +3048,13 @@
         <v>22514</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3027,13 +3063,13 @@
         <v>13074</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3042,13 +3078,13 @@
         <v>35588</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3099,13 @@
         <v>20020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3078,13 +3114,13 @@
         <v>8828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3093,19 +3129,19 @@
         <v>28848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>31</v>
@@ -3114,13 +3150,13 @@
         <v>30680</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3129,13 +3165,13 @@
         <v>19301</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -3144,19 +3180,19 @@
         <v>49981</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>27</v>
@@ -3165,13 +3201,13 @@
         <v>28549</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3180,13 +3216,13 @@
         <v>14755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -3195,19 +3231,19 @@
         <v>43303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>38</v>
@@ -3216,13 +3252,13 @@
         <v>41355</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3231,13 +3267,13 @@
         <v>16129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -3246,13 +3282,13 @@
         <v>57484</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3303,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3282,13 +3318,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3297,18 +3333,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3320,13 +3356,13 @@
         <v>131903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
@@ -3335,13 +3371,13 @@
         <v>118452</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -3350,13 +3386,13 @@
         <v>250355</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3407,13 @@
         <v>126627</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3386,13 +3422,13 @@
         <v>94935</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -3401,19 +3437,19 @@
         <v>221562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>210</v>
@@ -3422,13 +3458,13 @@
         <v>219990</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>155</v>
@@ -3437,13 +3473,13 @@
         <v>155067</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>365</v>
@@ -3452,19 +3488,19 @@
         <v>375057</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>200</v>
@@ -3473,13 +3509,13 @@
         <v>210214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -3488,13 +3524,13 @@
         <v>135035</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -3503,19 +3539,19 @@
         <v>345249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>218</v>
@@ -3524,13 +3560,13 @@
         <v>236463</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -3539,13 +3575,13 @@
         <v>149285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -3554,13 +3590,13 @@
         <v>385749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3611,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -3590,13 +3626,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -3605,18 +3641,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3628,13 +3664,13 @@
         <v>54561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3643,13 +3679,13 @@
         <v>62876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -3658,13 +3694,13 @@
         <v>117437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3715,13 @@
         <v>34236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3694,13 +3730,13 @@
         <v>39659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -3709,19 +3745,19 @@
         <v>73895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>65</v>
@@ -3730,13 +3766,13 @@
         <v>72157</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -3745,13 +3781,13 @@
         <v>60172</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -3760,19 +3796,19 @@
         <v>132329</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>71</v>
@@ -3781,13 +3817,13 @@
         <v>80976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3796,13 +3832,13 @@
         <v>55759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -3811,19 +3847,19 @@
         <v>136736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>103</v>
@@ -3832,13 +3868,13 @@
         <v>108678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -3847,13 +3883,13 @@
         <v>89987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>187</v>
@@ -3862,13 +3898,13 @@
         <v>198665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3919,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -3898,13 +3934,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3913,13 +3949,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3972,13 @@
         <v>208978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -3951,13 +3987,13 @@
         <v>194401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>377</v>
@@ -3966,13 +4002,13 @@
         <v>403379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +4023,13 @@
         <v>180884</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="H23" s="7">
         <v>142</v>
@@ -4002,13 +4038,13 @@
         <v>143422</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M23" s="7">
         <v>309</v>
@@ -4017,19 +4053,19 @@
         <v>324305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>306</v>
@@ -4038,13 +4074,13 @@
         <v>322826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>232</v>
@@ -4053,13 +4089,13 @@
         <v>234541</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M24" s="7">
         <v>538</v>
@@ -4068,19 +4104,19 @@
         <v>557367</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>298</v>
@@ -4089,13 +4125,13 @@
         <v>319739</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
         <v>203</v>
@@ -4104,13 +4140,13 @@
         <v>205549</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M25" s="7">
         <v>501</v>
@@ -4119,19 +4155,19 @@
         <v>525289</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>359</v>
@@ -4140,13 +4176,13 @@
         <v>386497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -4155,13 +4191,13 @@
         <v>255401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M26" s="7">
         <v>604</v>
@@ -4170,13 +4206,13 @@
         <v>641897</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4227,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4206,13 +4242,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4221,18 +4257,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03743F2C-6D7A-42CC-AFC6-8E025CA00254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECD447C8-CF41-4A40-806D-C782ABB3964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{888091C1-CCBE-44E5-860E-E8121F1905EE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{604E595D-BAF1-4419-A500-BDFFA43B1913}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAC5BCB-53FC-49F7-AF96-840D09D3456C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144291D5-D421-4DE8-A16F-70CBF0450413}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2924,7 +2924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D7BC7-8C38-4BA6-85A0-4E17290D5FB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB5586-703B-404E-8556-E6F468AC7EEA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3999,7 +3999,7 @@
         <v>377</v>
       </c>
       <c r="N22" s="7">
-        <v>403379</v>
+        <v>403380</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>334</v>
@@ -4050,7 +4050,7 @@
         <v>309</v>
       </c>
       <c r="N23" s="7">
-        <v>324305</v>
+        <v>324306</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>343</v>
@@ -4203,7 +4203,7 @@
         <v>604</v>
       </c>
       <c r="N26" s="7">
-        <v>641897</v>
+        <v>641898</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>368</v>
@@ -4254,7 +4254,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
